--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4965,6 +4965,98 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45191.79166666666</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>18/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:50</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>18/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>18/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:50</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/lyngby-vejle/6XidnLHs/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,46 +2321,46 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.69</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>06/08/2023 18:12</t>
+          <t>08/08/2023 14:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.79</v>
+        <v>3.18</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 13:55</t>
+          <t>13/08/2023 13:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.82</v>
+        <v>3.57</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>06/08/2023 18:12</t>
+          <t>08/08/2023 14:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.86</v>
+        <v>3.46</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,24 +2368,24 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>06/08/2023 18:12</t>
+          <t>08/08/2023 14:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 13:58</t>
+          <t>13/08/2023 13:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-nordsjaelland/pMaXQDk4/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-midtjylland/nysURgzb/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.69</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>08/08/2023 14:42</t>
+          <t>06/08/2023 18:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.18</v>
+        <v>3.79</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>13/08/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>06/08/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>13/08/2023 13:59</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>08/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>13/08/2023 13:59</t>
-        </is>
-      </c>
       <c r="R22" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>08/08/2023 14:42</t>
+          <t>06/08/2023 18:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 13:59</t>
+          <t>13/08/2023 13:58</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-midtjylland/nysURgzb/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-nordsjaelland/pMaXQDk4/</t>
         </is>
       </c>
     </row>
@@ -5054,6 +5054,374 @@
       <c r="V50" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/superliga/lyngby-vejle/6XidnLHs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45193.58333333334</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Brondby</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>FC Copenhagen</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>17/09/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>17/09/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>17/09/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/brondby-fc-copenhagen/nmBPisfK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45193.58333333334</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-viborg/0fi0ouXm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45193.66666666666</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Randers FC</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Aarhus</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>17/09/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>17/09/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>17/09/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-aarhus/voj4panf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45193.75</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Odense</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/midtjylland-odense/UB0Uj19Q/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5425,6 +5425,98 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45194.79166666666</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Nordsjaelland</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Hvidovre IF</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>18/09/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>25/09/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>18/09/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>25/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>18/09/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>25/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/nordsjaelland-hvidovre-if/dMp9qJ10/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
